--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl12-Ccr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl12-Ccr1.xlsx
@@ -540,10 +540,10 @@
         <v>0.846464</v>
       </c>
       <c r="I2">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="J2">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,10 +558,10 @@
         <v>0.03657</v>
       </c>
       <c r="O2">
-        <v>0.0001056589573861852</v>
+        <v>0.0002880357555630755</v>
       </c>
       <c r="P2">
-        <v>0.0001056589573861852</v>
+        <v>0.0002880357555630755</v>
       </c>
       <c r="Q2">
         <v>0.003439465386666667</v>
@@ -570,10 +570,10 @@
         <v>0.03095518848</v>
       </c>
       <c r="S2">
-        <v>3.435117164656367E-07</v>
+        <v>1.64842885079842E-06</v>
       </c>
       <c r="T2">
-        <v>3.435117164656366E-07</v>
+        <v>1.64842885079842E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.846464</v>
       </c>
       <c r="I3">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="J3">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.85142500000001</v>
+        <v>32.87103466666667</v>
       </c>
       <c r="N3">
-        <v>143.554275</v>
+        <v>98.61310400000001</v>
       </c>
       <c r="O3">
-        <v>0.4147605967959998</v>
+        <v>0.7767049471988007</v>
       </c>
       <c r="P3">
-        <v>0.4147605967959997</v>
+        <v>0.7767049471988008</v>
       </c>
       <c r="Q3">
-        <v>13.5015028704</v>
+        <v>9.274715829361778</v>
       </c>
       <c r="R3">
-        <v>121.5135258336</v>
+        <v>83.47244246425601</v>
       </c>
       <c r="S3">
-        <v>0.001348443407471426</v>
+        <v>0.004445083010675008</v>
       </c>
       <c r="T3">
-        <v>0.001348443407471426</v>
+        <v>0.004445083010675008</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.846464</v>
       </c>
       <c r="I4">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="J4">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>67.50757833333334</v>
+        <v>9.43791</v>
       </c>
       <c r="N4">
-        <v>202.522735</v>
+        <v>28.31373</v>
       </c>
       <c r="O4">
-        <v>0.5851337442466141</v>
+        <v>0.2230070170456362</v>
       </c>
       <c r="P4">
-        <v>0.585133744246614</v>
+        <v>0.2230070170456362</v>
       </c>
       <c r="Q4">
-        <v>19.04757826211556</v>
+        <v>2.66295035008</v>
       </c>
       <c r="R4">
-        <v>171.42820435904</v>
+        <v>23.96655315072</v>
       </c>
       <c r="S4">
-        <v>0.00190234980375076</v>
+        <v>0.001276269330208278</v>
       </c>
       <c r="T4">
-        <v>0.00190234980375076</v>
+        <v>0.001276269330208278</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.96940366666666</v>
+        <v>30.199365</v>
       </c>
       <c r="H5">
-        <v>167.908211</v>
+        <v>90.598095</v>
       </c>
       <c r="I5">
-        <v>0.6449093533393406</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="J5">
-        <v>0.6449093533393405</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,22 +744,22 @@
         <v>0.03657</v>
       </c>
       <c r="O5">
-        <v>0.0001056589573861852</v>
+        <v>0.0002880357555630755</v>
       </c>
       <c r="P5">
-        <v>0.0001056589573861852</v>
+        <v>0.0002880357555630755</v>
       </c>
       <c r="Q5">
-        <v>0.6822670306966666</v>
+        <v>0.36813025935</v>
       </c>
       <c r="R5">
-        <v>6.14040327627</v>
+        <v>3.31317233415</v>
       </c>
       <c r="S5">
-        <v>6.814044988243363E-05</v>
+        <v>0.0001764333906998715</v>
       </c>
       <c r="T5">
-        <v>6.814044988243361E-05</v>
+        <v>0.0001764333906998715</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.96940366666666</v>
+        <v>30.199365</v>
       </c>
       <c r="H6">
-        <v>167.908211</v>
+        <v>90.598095</v>
       </c>
       <c r="I6">
-        <v>0.6449093533393406</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="J6">
-        <v>0.6449093533393405</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.85142500000001</v>
+        <v>32.87103466666667</v>
       </c>
       <c r="N6">
-        <v>143.554275</v>
+        <v>98.61310400000001</v>
       </c>
       <c r="O6">
-        <v>0.4147605967959998</v>
+        <v>0.7767049471988007</v>
       </c>
       <c r="P6">
-        <v>0.4147605967959997</v>
+        <v>0.7767049471988008</v>
       </c>
       <c r="Q6">
-        <v>2678.215721850225</v>
+        <v>992.68437382632</v>
       </c>
       <c r="R6">
-        <v>24103.94149665203</v>
+        <v>8934.15936443688</v>
       </c>
       <c r="S6">
-        <v>0.2674829882703472</v>
+        <v>0.4757627647295341</v>
       </c>
       <c r="T6">
-        <v>0.2674829882703471</v>
+        <v>0.4757627647295342</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>55.96940366666666</v>
+        <v>30.199365</v>
       </c>
       <c r="H7">
-        <v>167.908211</v>
+        <v>90.598095</v>
       </c>
       <c r="I7">
-        <v>0.6449093533393406</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="J7">
-        <v>0.6449093533393405</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>67.50757833333334</v>
+        <v>9.43791</v>
       </c>
       <c r="N7">
-        <v>202.522735</v>
+        <v>28.31373</v>
       </c>
       <c r="O7">
-        <v>0.5851337442466141</v>
+        <v>0.2230070170456362</v>
       </c>
       <c r="P7">
-        <v>0.585133744246614</v>
+        <v>0.2230070170456362</v>
       </c>
       <c r="Q7">
-        <v>3778.358902297454</v>
+        <v>285.01888892715</v>
       </c>
       <c r="R7">
-        <v>34005.23012067709</v>
+        <v>2565.17000034435</v>
       </c>
       <c r="S7">
-        <v>0.3773582246191111</v>
+        <v>0.1366006942100266</v>
       </c>
       <c r="T7">
-        <v>0.3773582246191109</v>
+        <v>0.1366006942100266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.53490766666667</v>
+        <v>18.820355</v>
       </c>
       <c r="H8">
-        <v>91.60472300000001</v>
+        <v>56.461065</v>
       </c>
       <c r="I8">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="J8">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,22 +930,22 @@
         <v>0.03657</v>
       </c>
       <c r="O8">
-        <v>0.0001056589573861852</v>
+        <v>0.0002880357555630755</v>
       </c>
       <c r="P8">
-        <v>0.0001056589573861852</v>
+        <v>0.0002880357555630755</v>
       </c>
       <c r="Q8">
-        <v>0.3722205244566667</v>
+        <v>0.22942012745</v>
       </c>
       <c r="R8">
-        <v>3.34998472011</v>
+        <v>2.06478114705</v>
       </c>
       <c r="S8">
-        <v>3.717499578728592E-05</v>
+        <v>0.0001099539360124056</v>
       </c>
       <c r="T8">
-        <v>3.717499578728592E-05</v>
+        <v>0.0001099539360124056</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.53490766666667</v>
+        <v>18.820355</v>
       </c>
       <c r="H9">
-        <v>91.60472300000001</v>
+        <v>56.461065</v>
       </c>
       <c r="I9">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="J9">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>47.85142500000001</v>
+        <v>32.87103466666667</v>
       </c>
       <c r="N9">
-        <v>143.554275</v>
+        <v>98.61310400000001</v>
       </c>
       <c r="O9">
-        <v>0.4147605967959998</v>
+        <v>0.7767049471988007</v>
       </c>
       <c r="P9">
-        <v>0.4147605967959997</v>
+        <v>0.7767049471988008</v>
       </c>
       <c r="Q9">
-        <v>1461.138844093425</v>
+        <v>618.6445416439733</v>
       </c>
       <c r="R9">
-        <v>13150.24959684083</v>
+        <v>5567.80087479576</v>
       </c>
       <c r="S9">
-        <v>0.1459291651181812</v>
+        <v>0.2964970994585916</v>
       </c>
       <c r="T9">
-        <v>0.1459291651181811</v>
+        <v>0.2964970994585917</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.53490766666667</v>
+        <v>18.820355</v>
       </c>
       <c r="H10">
-        <v>91.60472300000001</v>
+        <v>56.461065</v>
       </c>
       <c r="I10">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="J10">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>67.50757833333334</v>
+        <v>9.43791</v>
       </c>
       <c r="N10">
-        <v>202.522735</v>
+        <v>28.31373</v>
       </c>
       <c r="O10">
-        <v>0.5851337442466141</v>
+        <v>0.2230070170456362</v>
       </c>
       <c r="P10">
-        <v>0.585133744246614</v>
+        <v>0.2230070170456362</v>
       </c>
       <c r="Q10">
-        <v>2061.337671208601</v>
+        <v>177.62481665805</v>
       </c>
       <c r="R10">
-        <v>18552.03904087741</v>
+        <v>1598.62334992245</v>
       </c>
       <c r="S10">
-        <v>0.2058731698237524</v>
+        <v>0.08513005350540137</v>
       </c>
       <c r="T10">
-        <v>0.2058731698237523</v>
+        <v>0.08513005350540137</v>
       </c>
     </row>
   </sheetData>
